--- a/src/test/resources/Text.xlsx
+++ b/src/test/resources/Text.xlsx
@@ -1,5 +1,595 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach\WorkingWithFiles\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Text" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="152511"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Открыть</t>
+  </si>
+  <si>
+    <t>Проверить</t>
+  </si>
+  <si>
+    <t>Победить!</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% — акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="25" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="26" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="27" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="28" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="29" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="30" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="31" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="32" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="33" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="34" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="35" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="36" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="37" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="38" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="39" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="40" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="41" builtinId="26" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
@@ -260,6 +850,45 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>